--- a/medicine/Mort/National_Memorial_Cemetery_of_the_Pacific/National_Memorial_Cemetery_of_the_Pacific.xlsx
+++ b/medicine/Mort/National_Memorial_Cemetery_of_the_Pacific/National_Memorial_Cemetery_of_the_Pacific.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le National Memorial Cemetery of the Pacific ou Punchbowl National Cemetery est un cimetière militaire américain situé à Honolulu à Hawaï. Il accueille un mémorial en hommage aux hommes et aux femmes ayant servi dans les forces armées américaines. Le lieu est classé au sein du Registre national des lieux historiques.  
 Le cimetière est situé dans le Punchbowl Crater (Pūowaina en Hawaiien) juste au nord d'Honolulu, lieu qui fut dans le passé utilisé comme lieu de sacrifice humain pū-o-waina signifiant « colline du lieu (des sacrifices humains) ».
@@ -514,7 +526,9 @@
           <t>Personnalités inhumées (ordre alphabétique)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Harris Horder (1900-1943), coureur cycliste australien, Horder a pris la citoyenneté américaine. Il rejoint l'US Air Forces, en 1942, à l'âge de 42 ans. Horder, avec les douze membres d'équipage d'un Liberator, appelé "Big Emma", s'écrase en mer, lors d'un vol de reconnaissance dans le mauvais temps, près de Port Moresby en Nouvelle-Guinée
 Daniel Inouye (1924-2012), sénateur américain et héros de la seconde guerre mondiale
